--- a/020 Pomalaa/010 PELAMBUA.xlsx
+++ b/020 Pomalaa/010 PELAMBUA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJECT\kcda-blanko-generator\template\2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\kcda-blanko-generator\template\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEABA2A4-776C-43BF-9387-021F25123077}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Desa Kel" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Desa Kel'!$A$1:$G$89</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Desa Kel'!$3:$4</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -511,10 +510,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">12,2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-</t>
+    <t xml:space="preserve">12.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">6</t>
@@ -532,61 +531,55 @@
     <t xml:space="preserve">480</t>
   </si>
   <si>
-    <t xml:space="preserve">4232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2069</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1032</t>
+    <t xml:space="preserve">3889</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1905</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1984</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1074</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">2037</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">328</t>
+    <t xml:space="preserve">2185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">168</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">340</t>
+  </si>
+  <si>
+    <t xml:space="preserve">120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
     <t xml:space="preserve">7</t>
   </si>
   <si>
-    <t xml:space="preserve">925</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20</t>
+    <t xml:space="preserve">...</t>
   </si>
   <si>
     <t xml:space="preserve">287</t>
@@ -595,13 +588,7 @@
     <t xml:space="preserve">583</t>
   </si>
   <si>
-    <t xml:space="preserve">703</t>
-  </si>
-  <si>
-    <t xml:space="preserve">213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27</t>
+    <t xml:space="preserve">30</t>
   </si>
   <si>
     <t xml:space="preserve">17</t>
@@ -613,10 +600,7 @@
     <t xml:space="preserve">4</t>
   </si>
   <si>
-    <t xml:space="preserve">1,5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2,5</t>
+    <t xml:space="preserve">1.7</t>
   </si>
   <si>
     <t xml:space="preserve">12</t>
@@ -625,7 +609,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -862,6 +846,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -871,47 +888,14 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1227,11 +1211,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:G4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1246,15 +1230,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="28">
+      <c r="A1" t="s" s="19">
         <v>71</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s" s="8">
@@ -1274,36 +1258,36 @@
       <c r="G2" s="9"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="29">
+      <c r="A3" t="s" s="22">
         <v>69</v>
       </c>
-      <c r="B3" t="s" s="29">
+      <c r="B3" t="s" s="22">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="29">
+      <c r="C3" t="s" s="22">
         <v>68</v>
       </c>
-      <c r="D3" t="s" s="29">
+      <c r="D3" t="s" s="22">
         <v>70</v>
       </c>
-      <c r="E3" s="30">
+      <c r="E3" s="23">
+        <v>2023</v>
+      </c>
+      <c r="F3" s="27">
         <v>2022</v>
       </c>
-      <c r="F3" s="32">
-        <v>2021</v>
-      </c>
-      <c r="G3" t="s" s="34">
+      <c r="G3" t="s" s="25">
         <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="29"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="35"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="26"/>
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" t="s" s="15">
@@ -1325,10 +1309,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="20">
         <v>2.1</v>
       </c>
-      <c r="B6" t="s" s="23">
+      <c r="B6" t="s" s="20">
         <v>109</v>
       </c>
       <c r="C6" s="4"/>
@@ -1344,8 +1328,8 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23"/>
-      <c r="B7" s="23"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="4"/>
       <c r="D7" t="s" s="17">
         <v>1</v>
@@ -1359,10 +1343,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
+      <c r="A8" s="21">
         <v>2.3</v>
       </c>
-      <c r="B8" t="s" s="23">
+      <c r="B8" t="s" s="20">
         <v>110</v>
       </c>
       <c r="C8" s="4"/>
@@ -1378,8 +1362,8 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="23"/>
+      <c r="A9" s="21"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="4"/>
       <c r="D9" t="s" s="5">
         <v>2</v>
@@ -1393,10 +1377,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+      <c r="A10" s="21">
         <v>2.4</v>
       </c>
-      <c r="B10" t="s" s="23">
+      <c r="B10" t="s" s="20">
         <v>111</v>
       </c>
       <c r="C10" s="4"/>
@@ -1412,8 +1396,8 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="23"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="4"/>
       <c r="D11" t="s" s="5">
         <v>57</v>
@@ -1427,8 +1411,8 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="23"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="4"/>
       <c r="D12" t="s" s="17">
         <v>58</v>
@@ -1442,8 +1426,8 @@
       </c>
     </row>
     <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="23"/>
+      <c r="A13" s="21"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="4"/>
       <c r="D13" t="s" s="5">
         <v>59</v>
@@ -1457,8 +1441,8 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="23"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="4"/>
       <c r="D14" t="s" s="5">
         <v>60</v>
@@ -1472,8 +1456,8 @@
       </c>
     </row>
     <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="23"/>
+      <c r="A15" s="21"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="4"/>
       <c r="D15" t="s" s="5">
         <v>73</v>
@@ -1487,10 +1471,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="27">
+      <c r="A16" s="21">
         <v>2.5</v>
       </c>
-      <c r="B16" t="s" s="23">
+      <c r="B16" t="s" s="20">
         <v>112</v>
       </c>
       <c r="C16" s="4"/>
@@ -1506,8 +1490,8 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="23"/>
+      <c r="A17" s="21"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="4"/>
       <c r="D17" t="s" s="5">
         <v>130</v>
@@ -1521,10 +1505,10 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
+      <c r="A18" s="30">
         <v>3.1</v>
       </c>
-      <c r="B18" t="s" s="19">
+      <c r="B18" t="s" s="30">
         <v>113</v>
       </c>
       <c r="C18" s="4"/>
@@ -1540,9 +1524,9 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" t="s" s="22">
+      <c r="A19" s="31"/>
+      <c r="B19" s="31"/>
+      <c r="C19" t="s" s="29">
         <v>55</v>
       </c>
       <c r="D19" t="s" s="17">
@@ -1557,9 +1541,9 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="22"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="29"/>
       <c r="D20" t="s" s="17">
         <v>6</v>
       </c>
@@ -1591,10 +1575,10 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s" s="19">
+      <c r="A22" t="s" s="30">
         <v>133</v>
       </c>
-      <c r="B22" t="s" s="19">
+      <c r="B22" t="s" s="30">
         <v>115</v>
       </c>
       <c r="C22" s="4"/>
@@ -1610,8 +1594,8 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="4"/>
       <c r="D23" t="s" s="17">
         <v>52</v>
@@ -1625,10 +1609,10 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s" s="19">
+      <c r="A24" t="s" s="30">
         <v>133</v>
       </c>
-      <c r="B24" t="s" s="19">
+      <c r="B24" t="s" s="30">
         <v>115</v>
       </c>
       <c r="C24" s="4"/>
@@ -1644,8 +1628,8 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="31"/>
       <c r="C25" s="4"/>
       <c r="D25" t="s" s="6">
         <v>7</v>
@@ -1659,10 +1643,10 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s" s="19">
+      <c r="A26" t="s" s="30">
         <v>134</v>
       </c>
-      <c r="B26" t="s" s="19">
+      <c r="B26" t="s" s="30">
         <v>116</v>
       </c>
       <c r="C26" s="4"/>
@@ -1678,8 +1662,8 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="31"/>
       <c r="C27" s="4"/>
       <c r="D27" t="s" s="6">
         <v>9</v>
@@ -1693,8 +1677,8 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
-      <c r="B28" s="20"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="31"/>
       <c r="C28" s="4"/>
       <c r="D28" t="s" s="6">
         <v>10</v>
@@ -1708,23 +1692,23 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="31"/>
       <c r="C29" s="4"/>
       <c r="D29" t="s" s="6">
         <v>11</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" t="s" s="7">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="G29" s="10">
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
-      <c r="B30" s="20"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="31"/>
       <c r="C30" s="4"/>
       <c r="D30" t="s" s="6">
         <v>12</v>
@@ -1738,8 +1722,8 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="4"/>
       <c r="D31" t="s" s="6">
         <v>13</v>
@@ -1753,10 +1737,10 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s" s="23">
+      <c r="A32" t="s" s="20">
         <v>135</v>
       </c>
-      <c r="B32" t="s" s="23">
+      <c r="B32" t="s" s="20">
         <v>117</v>
       </c>
       <c r="C32" s="4"/>
@@ -1765,62 +1749,62 @@
       </c>
       <c r="E32" s="7"/>
       <c r="F32" t="s" s="7">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G32" s="10">
         <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="23"/>
-      <c r="B33" s="23"/>
+      <c r="A33" s="20"/>
+      <c r="B33" s="20"/>
       <c r="C33" s="4"/>
       <c r="D33" t="s" s="17">
         <v>62</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" t="s" s="7">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G33" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="23"/>
-      <c r="B34" s="23"/>
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="4"/>
       <c r="D34" t="s" s="17">
         <v>63</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" t="s" s="7">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G34" s="10">
         <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23"/>
-      <c r="B35" s="23"/>
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
       <c r="C35" s="4"/>
       <c r="D35" t="s" s="17">
         <v>64</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" t="s" s="7">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G35" s="10">
         <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s" s="23">
+      <c r="A36" t="s" s="20">
         <v>100</v>
       </c>
-      <c r="B36" t="s" s="23">
+      <c r="B36" t="s" s="20">
         <v>118</v>
       </c>
       <c r="C36" s="4"/>
@@ -1836,8 +1820,8 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="4"/>
       <c r="D37" t="s" s="17">
         <v>15</v>
@@ -1851,8 +1835,8 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
       <c r="C38" s="4"/>
       <c r="D38" t="s" s="17">
         <v>16</v>
@@ -1866,8 +1850,8 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
       <c r="C39" s="4"/>
       <c r="D39" t="s" s="17">
         <v>17</v>
@@ -1881,8 +1865,8 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="23"/>
-      <c r="B40" s="23"/>
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
       <c r="C40" s="4"/>
       <c r="D40" t="s" s="17">
         <v>13</v>
@@ -1896,10 +1880,10 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s" s="23">
+      <c r="A41" t="s" s="20">
         <v>136</v>
       </c>
-      <c r="B41" t="s" s="23">
+      <c r="B41" t="s" s="20">
         <v>119</v>
       </c>
       <c r="C41" s="4"/>
@@ -1915,8 +1899,8 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="23"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="4"/>
       <c r="D42" t="s" s="17">
         <v>19</v>
@@ -1930,8 +1914,8 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23"/>
-      <c r="B43" s="23"/>
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="4"/>
       <c r="D43" t="s" s="17">
         <v>20</v>
@@ -1945,13 +1929,13 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s" s="19">
+      <c r="A44" t="s" s="30">
         <v>101</v>
       </c>
-      <c r="B44" t="s" s="19">
+      <c r="B44" t="s" s="30">
         <v>120</v>
       </c>
-      <c r="C44" t="s" s="24">
+      <c r="C44" t="s" s="33">
         <v>25</v>
       </c>
       <c r="D44" t="s" s="17">
@@ -1966,9 +1950,9 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="26"/>
+      <c r="A45" s="31"/>
+      <c r="B45" s="31"/>
+      <c r="C45" s="34"/>
       <c r="D45" t="s" s="17">
         <v>22</v>
       </c>
@@ -1981,9 +1965,9 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="26"/>
+      <c r="A46" s="31"/>
+      <c r="B46" s="31"/>
+      <c r="C46" s="34"/>
       <c r="D46" t="s" s="17">
         <v>23</v>
       </c>
@@ -1996,9 +1980,9 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="26"/>
+      <c r="A47" s="31"/>
+      <c r="B47" s="31"/>
+      <c r="C47" s="34"/>
       <c r="D47" t="s" s="17">
         <v>24</v>
       </c>
@@ -2011,9 +1995,9 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="20"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="26"/>
+      <c r="A48" s="31"/>
+      <c r="B48" s="31"/>
+      <c r="C48" s="34"/>
       <c r="D48" t="s" s="17">
         <v>26</v>
       </c>
@@ -2026,54 +2010,54 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="20"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="26"/>
+      <c r="A49" s="31"/>
+      <c r="B49" s="31"/>
+      <c r="C49" s="34"/>
       <c r="D49" t="s" s="17">
         <v>27</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" t="s" s="7">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G49" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="20"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="26"/>
+      <c r="A50" s="31"/>
+      <c r="B50" s="31"/>
+      <c r="C50" s="34"/>
       <c r="D50" t="s" s="17">
         <v>28</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" t="s" s="7">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G50" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="20"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="25"/>
+      <c r="A51" s="31"/>
+      <c r="B51" s="31"/>
+      <c r="C51" s="35"/>
       <c r="D51" t="s" s="17">
         <v>13</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" t="s" s="7">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G51" s="10">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="20"/>
-      <c r="B52" s="20"/>
-      <c r="C52" t="s" s="22">
+      <c r="A52" s="31"/>
+      <c r="B52" s="31"/>
+      <c r="C52" t="s" s="29">
         <v>75</v>
       </c>
       <c r="D52" t="s" s="17">
@@ -2088,24 +2072,24 @@
       </c>
     </row>
     <row r="53" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="20"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="22"/>
+      <c r="A53" s="31"/>
+      <c r="B53" s="31"/>
+      <c r="C53" s="29"/>
       <c r="D53" t="s" s="17">
         <v>66</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" t="s" s="7">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G53" s="10">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="21"/>
-      <c r="B54" s="21"/>
-      <c r="C54" s="22"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="29"/>
       <c r="D54" t="s" s="17">
         <v>67</v>
       </c>
@@ -2118,10 +2102,10 @@
       </c>
     </row>
     <row r="55" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s" s="19">
+      <c r="A55" t="s" s="30">
         <v>102</v>
       </c>
-      <c r="B55" t="s" s="19">
+      <c r="B55" t="s" s="30">
         <v>121</v>
       </c>
       <c r="C55" s="4"/>
@@ -2137,15 +2121,15 @@
       </c>
     </row>
     <row r="56" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="21"/>
-      <c r="B56" s="21"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="32"/>
       <c r="C56" s="4"/>
       <c r="D56" t="s" s="17">
         <v>30</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" t="s" s="7">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G56" s="10">
         <v>2</v>
@@ -2164,17 +2148,17 @@
       </c>
       <c r="E57" s="7"/>
       <c r="F57" t="s" s="7">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G57" s="10">
         <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s" s="23">
+      <c r="A58" t="s" s="20">
         <v>103</v>
       </c>
-      <c r="B58" t="s" s="23">
+      <c r="B58" t="s" s="20">
         <v>122</v>
       </c>
       <c r="C58" s="4"/>
@@ -2183,32 +2167,32 @@
       </c>
       <c r="E58" s="7"/>
       <c r="F58" t="s" s="7">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G58" s="10">
         <v>38</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="23"/>
-      <c r="B59" s="23"/>
+      <c r="A59" s="20"/>
+      <c r="B59" s="20"/>
       <c r="C59" s="4"/>
       <c r="D59" t="s" s="17">
         <v>33</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" t="s" s="7">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G59" s="10">
         <v>712</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s" s="23">
+      <c r="A60" t="s" s="20">
         <v>104</v>
       </c>
-      <c r="B60" t="s" s="23">
+      <c r="B60" t="s" s="20">
         <v>123</v>
       </c>
       <c r="C60" s="4"/>
@@ -2217,32 +2201,32 @@
       </c>
       <c r="E60" s="7"/>
       <c r="F60" t="s" s="7">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="G60" s="10">
         <v>733</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="23"/>
-      <c r="B61" s="23"/>
+      <c r="A61" s="20"/>
+      <c r="B61" s="20"/>
       <c r="C61" s="4"/>
       <c r="D61" t="s" s="17">
         <v>35</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" t="s" s="7">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="G61" s="10">
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="23">
+      <c r="A62" s="20">
         <v>8.4</v>
       </c>
-      <c r="B62" t="s" s="23">
+      <c r="B62" t="s" s="20">
         <v>124</v>
       </c>
       <c r="C62" s="4"/>
@@ -2258,8 +2242,8 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="23"/>
-      <c r="B63" s="23"/>
+      <c r="A63" s="20"/>
+      <c r="B63" s="20"/>
       <c r="C63" s="4"/>
       <c r="D63" t="s" s="17">
         <v>37</v>
@@ -2273,10 +2257,10 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="19">
+      <c r="A64" s="30">
         <v>8.5</v>
       </c>
-      <c r="B64" t="s" s="19">
+      <c r="B64" t="s" s="30">
         <v>125</v>
       </c>
       <c r="C64" s="4"/>
@@ -2285,30 +2269,30 @@
       </c>
       <c r="E64" s="7"/>
       <c r="F64" t="s" s="7">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G64" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="20"/>
-      <c r="B65" s="20"/>
+      <c r="A65" s="31"/>
+      <c r="B65" s="31"/>
       <c r="C65" s="4"/>
       <c r="D65" t="s" s="17">
         <v>39</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" t="s" s="7">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="G65" s="10">
         <v>15</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="20"/>
-      <c r="B66" s="20"/>
+      <c r="A66" s="31"/>
+      <c r="B66" s="31"/>
       <c r="C66" s="4"/>
       <c r="D66" t="s" s="17">
         <v>40</v>
@@ -2322,8 +2306,8 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="21"/>
-      <c r="B67" s="21"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
       <c r="C67" s="4"/>
       <c r="D67" t="s" s="17">
         <v>41</v>
@@ -2337,13 +2321,13 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s" s="19">
+      <c r="A68" t="s" s="30">
         <v>105</v>
       </c>
-      <c r="B68" t="s" s="19">
+      <c r="B68" t="s" s="30">
         <v>126</v>
       </c>
-      <c r="C68" t="s" s="24">
+      <c r="C68" t="s" s="33">
         <v>42</v>
       </c>
       <c r="D68" t="s" s="17">
@@ -2358,25 +2342,25 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="21"/>
-      <c r="B69" s="21"/>
-      <c r="C69" s="25"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="35"/>
       <c r="D69" t="s" s="17">
         <v>79</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" t="s" s="7">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G69" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s" s="19">
+      <c r="A70" t="s" s="30">
         <v>105</v>
       </c>
-      <c r="B70" t="s" s="19">
+      <c r="B70" t="s" s="30">
         <v>126</v>
       </c>
       <c r="C70" t="s" s="18">
@@ -2387,16 +2371,16 @@
       </c>
       <c r="E70" s="7"/>
       <c r="F70" t="s" s="7">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G70" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="20"/>
-      <c r="B71" s="20"/>
-      <c r="C71" t="s" s="22">
+      <c r="A71" s="31"/>
+      <c r="B71" s="31"/>
+      <c r="C71" t="s" s="29">
         <v>43</v>
       </c>
       <c r="D71" t="s" s="17">
@@ -2411,9 +2395,9 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="20"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="22"/>
+      <c r="A72" s="31"/>
+      <c r="B72" s="31"/>
+      <c r="C72" s="29"/>
       <c r="D72" t="s" s="17">
         <v>79</v>
       </c>
@@ -2426,9 +2410,9 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="20"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="22"/>
+      <c r="A73" s="31"/>
+      <c r="B73" s="31"/>
+      <c r="C73" s="29"/>
       <c r="D73" t="s" s="17">
         <v>80</v>
       </c>
@@ -2441,9 +2425,9 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="20"/>
-      <c r="B74" s="20"/>
-      <c r="C74" t="s" s="22">
+      <c r="A74" s="31"/>
+      <c r="B74" s="31"/>
+      <c r="C74" t="s" s="29">
         <v>44</v>
       </c>
       <c r="D74" t="s" s="17">
@@ -2458,9 +2442,9 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="20"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="22"/>
+      <c r="A75" s="31"/>
+      <c r="B75" s="31"/>
+      <c r="C75" s="29"/>
       <c r="D75" t="s" s="17">
         <v>79</v>
       </c>
@@ -2473,9 +2457,9 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21"/>
-      <c r="C76" s="22"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="32"/>
+      <c r="C76" s="29"/>
       <c r="D76" t="s" s="17">
         <v>80</v>
       </c>
@@ -2488,10 +2472,10 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s" s="19">
+      <c r="A77" t="s" s="30">
         <v>137</v>
       </c>
-      <c r="B77" t="s" s="19">
+      <c r="B77" t="s" s="30">
         <v>127</v>
       </c>
       <c r="C77" s="4"/>
@@ -2500,30 +2484,30 @@
       </c>
       <c r="E77" s="7"/>
       <c r="F77" t="s" s="7">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G77" t="s" s="10">
         <v>86</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="20"/>
-      <c r="B78" s="20"/>
+      <c r="A78" s="31"/>
+      <c r="B78" s="31"/>
       <c r="C78" s="4"/>
       <c r="D78" t="s" s="17">
         <v>82</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" t="s" s="7">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G78" t="s" s="10">
         <v>87</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="20"/>
-      <c r="B79" s="20"/>
+      <c r="A79" s="31"/>
+      <c r="B79" s="31"/>
       <c r="C79" s="4"/>
       <c r="D79" t="s" s="17">
         <v>83</v>
@@ -2537,40 +2521,40 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="20"/>
-      <c r="B80" s="20"/>
+      <c r="A80" s="31"/>
+      <c r="B80" s="31"/>
       <c r="C80" s="4"/>
       <c r="D80" t="s" s="17">
         <v>84</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" t="s" s="7">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="G80" t="s" s="10">
         <v>89</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
       <c r="C81" s="4"/>
       <c r="D81" t="s" s="17">
         <v>85</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" t="s" s="7">
-        <v>180</v>
+        <v>98</v>
       </c>
       <c r="G81" t="s" s="10">
         <v>90</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s" s="23">
+      <c r="A82" t="s" s="20">
         <v>138</v>
       </c>
-      <c r="B82" t="s" s="23">
+      <c r="B82" t="s" s="20">
         <v>128</v>
       </c>
       <c r="C82" s="4"/>
@@ -2579,45 +2563,45 @@
       </c>
       <c r="E82" s="7"/>
       <c r="F82" t="s" s="7">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="G82" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="23"/>
-      <c r="B83" s="23"/>
+      <c r="A83" s="20"/>
+      <c r="B83" s="20"/>
       <c r="C83" s="4"/>
       <c r="D83" t="s" s="17">
         <v>46</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" t="s" s="7">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G83" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="23"/>
-      <c r="B84" s="23"/>
+      <c r="A84" s="20"/>
+      <c r="B84" s="20"/>
       <c r="C84" s="4"/>
       <c r="D84" t="s" s="17">
         <v>47</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" t="s" s="7">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G84" s="10">
         <v>5</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="23"/>
-      <c r="B85" s="23"/>
+      <c r="A85" s="20"/>
+      <c r="B85" s="20"/>
       <c r="C85" s="4"/>
       <c r="D85" t="s" s="17">
         <v>48</v>
@@ -2631,10 +2615,10 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s" s="19">
+      <c r="A86" t="s" s="30">
         <v>139</v>
       </c>
-      <c r="B86" t="s" s="19">
+      <c r="B86" t="s" s="30">
         <v>129</v>
       </c>
       <c r="C86" s="4"/>
@@ -2650,8 +2634,8 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="20"/>
-      <c r="B87" s="20"/>
+      <c r="A87" s="31"/>
+      <c r="B87" s="31"/>
       <c r="C87" s="4"/>
       <c r="D87" t="s" s="17">
         <v>49</v>
@@ -2665,8 +2649,8 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="20"/>
-      <c r="B88" s="20"/>
+      <c r="A88" s="31"/>
+      <c r="B88" s="31"/>
       <c r="C88" s="4"/>
       <c r="D88" t="s" s="17">
         <v>50</v>
@@ -2680,8 +2664,8 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="21"/>
-      <c r="B89" s="21"/>
+      <c r="A89" s="32"/>
+      <c r="B89" s="32"/>
       <c r="C89" s="4"/>
       <c r="D89" t="s" s="17">
         <v>20</v>
@@ -2696,6 +2680,50 @@
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="B44:B54"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="A10:A15"/>
@@ -2710,50 +2738,6 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="B44:B54"/>
-    <mergeCell ref="A44:A54"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="A77:A81"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/020 Pomalaa/010 PELAMBUA.xlsx
+++ b/020 Pomalaa/010 PELAMBUA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10512"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project\kcda-blanko-generator\template\2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/msh/Documents/projects/kcda-blanko-generator/template/2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A18FFAE-38DC-4842-8520-6C67652CE042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="0"/>
+    <workbookView xWindow="140" yWindow="920" windowWidth="29920" windowHeight="17220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Desa Kel" sheetId="1" r:id="rId1"/>
@@ -510,7 +511,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">12.2</t>
+    <t xml:space="preserve">3.26</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -531,85 +532,76 @@
     <t xml:space="preserve">480</t>
   </si>
   <si>
-    <t xml:space="preserve">3889</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1905</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1984</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1074</t>
+    <t xml:space="preserve">3878</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1906</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1972</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2337</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">357</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">2185</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">340</t>
-  </si>
-  <si>
-    <t xml:space="preserve">120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">137</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
+    <t xml:space="preserve">902</t>
+  </si>
+  <si>
+    <t xml:space="preserve">121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">690</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">45</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
     <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">...</t>
-  </si>
-  <si>
-    <t xml:space="preserve">287</t>
-  </si>
-  <si>
-    <t xml:space="preserve">583</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -805,63 +797,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -875,27 +883,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1211,104 +1198,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="138" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="41.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" customWidth="1"/>
-    <col min="6" max="7" width="13.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="41.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="30.1640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" customWidth="1"/>
     <col min="8" max="9" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" t="s" s="19">
+    <row r="1" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s" s="25">
         <v>71</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s" s="8">
         <v>93</v>
       </c>
       <c r="B2" t="s" s="8">
         <v>142</v>
       </c>
-      <c r="C2" t="s" s="12">
+      <c r="C2" t="s" s="11">
         <v>143</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" t="s" s="14">
+      <c r="D2" s="2"/>
+      <c r="E2" t="s">
         <v>92</v>
       </c>
-      <c r="F2" s="14"/>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s" s="22">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s" s="26">
         <v>69</v>
       </c>
-      <c r="B3" t="s" s="22">
+      <c r="B3" t="s" s="26">
         <v>4</v>
       </c>
-      <c r="C3" t="s" s="22">
+      <c r="C3" t="s" s="26">
         <v>68</v>
       </c>
-      <c r="D3" t="s" s="22">
+      <c r="D3" t="s" s="26">
         <v>70</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E3" s="27">
+        <v>2024</v>
+      </c>
+      <c r="F3" s="31">
         <v>2023</v>
       </c>
-      <c r="F3" s="27">
-        <v>2022</v>
-      </c>
-      <c r="G3" t="s" s="25">
+      <c r="G3" t="s" s="29">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="26"/>
-    </row>
-    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" t="s" s="15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="30"/>
+    </row>
+    <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" t="s" s="12">
         <v>96</v>
       </c>
-      <c r="B5" t="s" s="15">
+      <c r="B5" t="s" s="12">
         <v>108</v>
       </c>
       <c r="C5" s="4"/>
-      <c r="D5" t="s" s="17">
+      <c r="D5" t="s" s="14">
         <v>144</v>
       </c>
       <c r="E5" s="7"/>
       <c r="F5" t="s" s="7">
         <v>145</v>
       </c>
-      <c r="G5" t="s" s="10">
+      <c r="G5" t="s" s="9">
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20">
         <v>2.1</v>
       </c>
@@ -1316,34 +1301,34 @@
         <v>109</v>
       </c>
       <c r="C6" s="4"/>
-      <c r="D6" t="s" s="17">
+      <c r="D6" t="s" s="14">
         <v>0</v>
       </c>
       <c r="E6" s="7"/>
       <c r="F6" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20"/>
       <c r="B7" s="20"/>
       <c r="C7" s="4"/>
-      <c r="D7" t="s" s="17">
+      <c r="D7" t="s" s="14">
         <v>1</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21">
+    <row r="8" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="24">
         <v>2.3</v>
       </c>
       <c r="B8" t="s" s="20">
@@ -1357,12 +1342,12 @@
       <c r="F8" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21"/>
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="24"/>
       <c r="B9" s="20"/>
       <c r="C9" s="4"/>
       <c r="D9" t="s" s="5">
@@ -1372,12 +1357,12 @@
       <c r="F9" t="s" s="7">
         <v>147</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21">
+    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="24">
         <v>2.4</v>
       </c>
       <c r="B10" t="s" s="20">
@@ -1391,12 +1376,12 @@
       <c r="F10" t="s" s="7">
         <v>148</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21"/>
+    <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="24"/>
       <c r="B11" s="20"/>
       <c r="C11" s="4"/>
       <c r="D11" t="s" s="5">
@@ -1406,27 +1391,27 @@
       <c r="F11" t="s" s="7">
         <v>148</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
+    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="24"/>
       <c r="B12" s="20"/>
       <c r="C12" s="4"/>
-      <c r="D12" t="s" s="17">
+      <c r="D12" t="s" s="14">
         <v>58</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" t="s" s="7">
         <v>148</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
+    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="24"/>
       <c r="B13" s="20"/>
       <c r="C13" s="4"/>
       <c r="D13" t="s" s="5">
@@ -1436,12 +1421,12 @@
       <c r="F13" t="s" s="7">
         <v>148</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21"/>
+    <row r="14" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="24"/>
       <c r="B14" s="20"/>
       <c r="C14" s="4"/>
       <c r="D14" t="s" s="5">
@@ -1451,12 +1436,12 @@
       <c r="F14" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21"/>
+    <row r="15" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="24"/>
       <c r="B15" s="20"/>
       <c r="C15" s="4"/>
       <c r="D15" t="s" s="5">
@@ -1466,12 +1451,12 @@
       <c r="F15" t="s" s="7">
         <v>149</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
+    <row r="16" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="24">
         <v>2.5</v>
       </c>
       <c r="B16" t="s" s="20">
@@ -1485,12 +1470,12 @@
       <c r="F16" t="s" s="7">
         <v>150</v>
       </c>
-      <c r="G16" s="10">
+      <c r="G16" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="21"/>
+    <row r="17" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="24"/>
       <c r="B17" s="20"/>
       <c r="C17" s="4"/>
       <c r="D17" t="s" s="5">
@@ -1500,85 +1485,85 @@
       <c r="F17" t="s" s="7">
         <v>151</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="16">
         <v>3.1</v>
       </c>
-      <c r="B18" t="s" s="30">
+      <c r="B18" t="s" s="16">
         <v>113</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" t="s" s="17">
+      <c r="D18" t="s" s="14">
         <v>55</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" t="s" s="7">
         <v>152</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>3000</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="31"/>
-      <c r="B19" s="31"/>
-      <c r="C19" t="s" s="29">
+    <row r="19" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17"/>
+      <c r="B19" s="17"/>
+      <c r="C19" t="s" s="19">
         <v>55</v>
       </c>
-      <c r="D19" t="s" s="17">
+      <c r="D19" t="s" s="14">
         <v>5</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" t="s" s="7">
         <v>153</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G19" s="10">
         <v>1700</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="29"/>
-      <c r="D20" t="s" s="17">
+    <row r="20" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" t="s" s="14">
         <v>6</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" t="s" s="7">
         <v>154</v>
       </c>
-      <c r="G20" s="11">
+      <c r="G20" s="10">
         <v>1300</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="15">
+    <row r="21" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
         <v>3.2</v>
       </c>
-      <c r="B21" t="s" s="15">
+      <c r="B21" t="s" s="12">
         <v>114</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" t="s" s="17">
+      <c r="D21" t="s" s="14">
         <v>74</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" t="s" s="7">
         <v>155</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="9">
         <v>750</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s" s="30">
+    <row r="22" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s" s="16">
         <v>133</v>
       </c>
-      <c r="B22" t="s" s="30">
+      <c r="B22" t="s" s="16">
         <v>115</v>
       </c>
       <c r="C22" s="4"/>
@@ -1589,30 +1574,30 @@
       <c r="F22" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="31"/>
-      <c r="B23" s="31"/>
+    <row r="23" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
       <c r="C23" s="4"/>
-      <c r="D23" t="s" s="17">
+      <c r="D23" t="s" s="14">
         <v>52</v>
       </c>
       <c r="E23" s="7"/>
       <c r="F23" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G23" s="10">
+      <c r="G23" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s" s="30">
+    <row r="24" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s" s="16">
         <v>133</v>
       </c>
-      <c r="B24" t="s" s="30">
+      <c r="B24" t="s" s="16">
         <v>115</v>
       </c>
       <c r="C24" s="4"/>
@@ -1621,15 +1606,15 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" t="s" s="7">
-        <v>156</v>
-      </c>
-      <c r="G24" s="10">
+        <v>148</v>
+      </c>
+      <c r="G24" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="31"/>
-      <c r="B25" s="31"/>
+    <row r="25" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
       <c r="C25" s="4"/>
       <c r="D25" t="s" s="6">
         <v>7</v>
@@ -1638,15 +1623,15 @@
       <c r="F25" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G25" s="10">
+      <c r="G25" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" t="s" s="30">
+    <row r="26" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s" s="16">
         <v>134</v>
       </c>
-      <c r="B26" t="s" s="30">
+      <c r="B26" t="s" s="16">
         <v>116</v>
       </c>
       <c r="C26" s="4"/>
@@ -1655,60 +1640,60 @@
       </c>
       <c r="E26" s="7"/>
       <c r="F26" t="s" s="7">
-        <v>157</v>
-      </c>
-      <c r="G26" s="11">
+        <v>156</v>
+      </c>
+      <c r="G26" s="10">
         <v>2890</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="31"/>
-      <c r="B27" s="31"/>
+    <row r="27" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="17"/>
+      <c r="B27" s="17"/>
       <c r="C27" s="4"/>
       <c r="D27" t="s" s="6">
         <v>9</v>
       </c>
       <c r="E27" s="7"/>
       <c r="F27" t="s" s="7">
-        <v>158</v>
-      </c>
-      <c r="G27" s="10">
+        <v>157</v>
+      </c>
+      <c r="G27" s="9">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="31"/>
-      <c r="B28" s="31"/>
+    <row r="28" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="17"/>
+      <c r="B28" s="17"/>
       <c r="C28" s="4"/>
       <c r="D28" t="s" s="6">
         <v>10</v>
       </c>
       <c r="E28" s="7"/>
       <c r="F28" t="s" s="7">
-        <v>159</v>
-      </c>
-      <c r="G28" s="10">
+        <v>158</v>
+      </c>
+      <c r="G28" s="9">
         <v>70</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="31"/>
+    <row r="29" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="17"/>
+      <c r="B29" s="17"/>
       <c r="C29" s="4"/>
       <c r="D29" t="s" s="6">
         <v>11</v>
       </c>
       <c r="E29" s="7"/>
       <c r="F29" t="s" s="7">
-        <v>147</v>
-      </c>
-      <c r="G29" s="10">
+        <v>159</v>
+      </c>
+      <c r="G29" s="9">
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="31"/>
-      <c r="B30" s="31"/>
+    <row r="30" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="17"/>
+      <c r="B30" s="17"/>
       <c r="C30" s="4"/>
       <c r="D30" t="s" s="6">
         <v>12</v>
@@ -1717,13 +1702,13 @@
       <c r="F30" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G30" s="10">
+      <c r="G30" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="32"/>
-      <c r="B31" s="32"/>
+    <row r="31" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="18"/>
+      <c r="B31" s="18"/>
       <c r="C31" s="4"/>
       <c r="D31" t="s" s="6">
         <v>13</v>
@@ -1732,11 +1717,11 @@
       <c r="F31" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G31" s="10">
+      <c r="G31" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s" s="20">
         <v>135</v>
       </c>
@@ -1744,63 +1729,63 @@
         <v>117</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" t="s" s="17">
+      <c r="D32" t="s" s="14">
         <v>61</v>
       </c>
       <c r="E32" s="7"/>
       <c r="F32" t="s" s="7">
         <v>160</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="9">
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="20"/>
       <c r="B33" s="20"/>
       <c r="C33" s="4"/>
-      <c r="D33" t="s" s="17">
+      <c r="D33" t="s" s="14">
         <v>62</v>
       </c>
       <c r="E33" s="7"/>
       <c r="F33" t="s" s="7">
         <v>161</v>
       </c>
-      <c r="G33" s="10">
+      <c r="G33" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="20"/>
       <c r="B34" s="20"/>
       <c r="C34" s="4"/>
-      <c r="D34" t="s" s="17">
+      <c r="D34" t="s" s="14">
         <v>63</v>
       </c>
       <c r="E34" s="7"/>
       <c r="F34" t="s" s="7">
         <v>162</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
         <v>120</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="4"/>
-      <c r="D35" t="s" s="17">
+      <c r="D35" t="s" s="14">
         <v>64</v>
       </c>
       <c r="E35" s="7"/>
       <c r="F35" t="s" s="7">
         <v>163</v>
       </c>
-      <c r="G35" s="10">
+      <c r="G35" s="9">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s" s="20">
         <v>100</v>
       </c>
@@ -1808,78 +1793,78 @@
         <v>118</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" t="s" s="17">
+      <c r="D36" t="s" s="14">
         <v>14</v>
       </c>
       <c r="E36" s="7"/>
       <c r="F36" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G36" s="10">
+      <c r="G36" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="4"/>
-      <c r="D37" t="s" s="17">
+      <c r="D37" t="s" s="14">
         <v>15</v>
       </c>
       <c r="E37" s="7"/>
       <c r="F37" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G37" s="10">
+      <c r="G37" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="4"/>
-      <c r="D38" t="s" s="17">
+      <c r="D38" t="s" s="14">
         <v>16</v>
       </c>
       <c r="E38" s="7"/>
       <c r="F38" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G38" s="10">
+      <c r="G38" s="9">
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="4"/>
-      <c r="D39" t="s" s="17">
+      <c r="D39" t="s" s="14">
         <v>17</v>
       </c>
       <c r="E39" s="7"/>
       <c r="F39" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G39" s="10">
+      <c r="G39" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="4"/>
-      <c r="D40" t="s" s="17">
+      <c r="D40" t="s" s="14">
         <v>13</v>
       </c>
       <c r="E40" s="7"/>
       <c r="F40" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s" s="20">
         <v>136</v>
       </c>
@@ -1887,274 +1872,274 @@
         <v>119</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" t="s" s="17">
+      <c r="D41" t="s" s="14">
         <v>18</v>
       </c>
       <c r="E41" s="7"/>
       <c r="F41" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G41" s="10">
+      <c r="G41" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="4"/>
-      <c r="D42" t="s" s="17">
+      <c r="D42" t="s" s="14">
         <v>19</v>
       </c>
       <c r="E42" s="7"/>
       <c r="F42" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="9">
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="4"/>
-      <c r="D43" t="s" s="17">
+      <c r="D43" t="s" s="14">
         <v>20</v>
       </c>
       <c r="E43" s="7"/>
       <c r="F43" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G43" s="10">
+      <c r="G43" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s" s="30">
+    <row r="44" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" t="s" s="16">
         <v>101</v>
       </c>
-      <c r="B44" t="s" s="30">
+      <c r="B44" t="s" s="16">
         <v>120</v>
       </c>
-      <c r="C44" t="s" s="33">
+      <c r="C44" t="s" s="21">
         <v>25</v>
       </c>
-      <c r="D44" t="s" s="17">
+      <c r="D44" t="s" s="14">
         <v>21</v>
       </c>
       <c r="E44" s="7"/>
       <c r="F44" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="31"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="34"/>
-      <c r="D45" t="s" s="17">
+    <row r="45" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="23"/>
+      <c r="D45" t="s" s="14">
         <v>22</v>
       </c>
       <c r="E45" s="7"/>
       <c r="F45" t="s" s="7">
-        <v>156</v>
-      </c>
-      <c r="G45" s="10">
+        <v>149</v>
+      </c>
+      <c r="G45" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="31"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="34"/>
-      <c r="D46" t="s" s="17">
+    <row r="46" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="23"/>
+      <c r="D46" t="s" s="14">
         <v>23</v>
       </c>
       <c r="E46" s="7"/>
       <c r="F46" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="31"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="34"/>
-      <c r="D47" t="s" s="17">
+    <row r="47" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="23"/>
+      <c r="D47" t="s" s="14">
         <v>24</v>
       </c>
       <c r="E47" s="7"/>
       <c r="F47" t="s" s="7">
-        <v>146</v>
-      </c>
-      <c r="G47" s="10">
+        <v>148</v>
+      </c>
+      <c r="G47" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="31"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="34"/>
-      <c r="D48" t="s" s="17">
+    <row r="48" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="23"/>
+      <c r="D48" t="s" s="14">
         <v>26</v>
       </c>
       <c r="E48" s="7"/>
       <c r="F48" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G48" s="10">
+      <c r="G48" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="31"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="34"/>
-      <c r="D49" t="s" s="17">
+    <row r="49" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="23"/>
+      <c r="D49" t="s" s="14">
         <v>27</v>
       </c>
       <c r="E49" s="7"/>
       <c r="F49" t="s" s="7">
-        <v>164</v>
-      </c>
-      <c r="G49" s="10">
+        <v>148</v>
+      </c>
+      <c r="G49" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="31"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="34"/>
-      <c r="D50" t="s" s="17">
+    <row r="50" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="23"/>
+      <c r="D50" t="s" s="14">
         <v>28</v>
       </c>
       <c r="E50" s="7"/>
       <c r="F50" t="s" s="7">
-        <v>165</v>
-      </c>
-      <c r="G50" s="10">
+        <v>146</v>
+      </c>
+      <c r="G50" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="31"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="35"/>
-      <c r="D51" t="s" s="17">
+    <row r="51" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="22"/>
+      <c r="D51" t="s" s="14">
         <v>13</v>
       </c>
       <c r="E51" s="7"/>
       <c r="F51" t="s" s="7">
-        <v>166</v>
-      </c>
-      <c r="G51" s="10">
+        <v>164</v>
+      </c>
+      <c r="G51" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="31"/>
-      <c r="B52" s="31"/>
-      <c r="C52" t="s" s="29">
+    <row r="52" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+      <c r="C52" t="s" s="19">
         <v>75</v>
       </c>
-      <c r="D52" t="s" s="17">
+      <c r="D52" t="s" s="14">
         <v>65</v>
       </c>
       <c r="E52" s="7"/>
       <c r="F52" t="s" s="7">
-        <v>149</v>
-      </c>
-      <c r="G52" s="10">
+        <v>146</v>
+      </c>
+      <c r="G52" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="31"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="29"/>
-      <c r="D53" t="s" s="17">
+    <row r="53" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="19"/>
+      <c r="D53" t="s" s="14">
         <v>66</v>
       </c>
       <c r="E53" s="7"/>
       <c r="F53" t="s" s="7">
-        <v>166</v>
-      </c>
-      <c r="G53" s="10">
+        <v>146</v>
+      </c>
+      <c r="G53" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="29"/>
-      <c r="D54" t="s" s="17">
+    <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A54" s="18"/>
+      <c r="B54" s="18"/>
+      <c r="C54" s="19"/>
+      <c r="D54" t="s" s="14">
         <v>67</v>
       </c>
       <c r="E54" s="7"/>
       <c r="F54" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="G54" s="10">
+        <v>146</v>
+      </c>
+      <c r="G54" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s" s="30">
+    <row r="55" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s" s="16">
         <v>102</v>
       </c>
-      <c r="B55" t="s" s="30">
+      <c r="B55" t="s" s="16">
         <v>121</v>
       </c>
       <c r="C55" s="4"/>
-      <c r="D55" t="s" s="17">
+      <c r="D55" t="s" s="14">
         <v>29</v>
       </c>
       <c r="E55" s="7"/>
       <c r="F55" t="s" s="7">
-        <v>168</v>
-      </c>
-      <c r="G55" s="10">
+        <v>165</v>
+      </c>
+      <c r="G55" s="9">
         <v>700</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="32"/>
+    <row r="56" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
       <c r="C56" s="4"/>
-      <c r="D56" t="s" s="17">
+      <c r="D56" t="s" s="14">
         <v>30</v>
       </c>
       <c r="E56" s="7"/>
       <c r="F56" t="s" s="7">
-        <v>168</v>
-      </c>
-      <c r="G56" s="10">
+        <v>146</v>
+      </c>
+      <c r="G56" s="9">
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" t="s" s="16">
+    <row r="57" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A57" t="s" s="13">
         <v>102</v>
       </c>
-      <c r="B57" t="s" s="15">
+      <c r="B57" t="s" s="12">
         <v>95</v>
       </c>
       <c r="C57" s="4"/>
-      <c r="D57" t="s" s="17">
+      <c r="D57" t="s" s="14">
         <v>31</v>
       </c>
       <c r="E57" s="7"/>
       <c r="F57" t="s" s="7">
-        <v>168</v>
-      </c>
-      <c r="G57" s="10">
+        <v>146</v>
+      </c>
+      <c r="G57" s="9">
         <v>48</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s" s="20">
         <v>103</v>
       </c>
@@ -2162,33 +2147,33 @@
         <v>122</v>
       </c>
       <c r="C58" s="4"/>
-      <c r="D58" t="s" s="17">
+      <c r="D58" t="s" s="14">
         <v>32</v>
       </c>
       <c r="E58" s="7"/>
       <c r="F58" t="s" s="7">
-        <v>169</v>
-      </c>
-      <c r="G58" s="10">
+        <v>166</v>
+      </c>
+      <c r="G58" s="9">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="20"/>
       <c r="B59" s="20"/>
       <c r="C59" s="4"/>
-      <c r="D59" t="s" s="17">
+      <c r="D59" t="s" s="14">
         <v>33</v>
       </c>
       <c r="E59" s="7"/>
       <c r="F59" t="s" s="7">
-        <v>170</v>
-      </c>
-      <c r="G59" s="10">
+        <v>167</v>
+      </c>
+      <c r="G59" s="9">
         <v>712</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s" s="20">
         <v>104</v>
       </c>
@@ -2196,33 +2181,33 @@
         <v>123</v>
       </c>
       <c r="C60" s="4"/>
-      <c r="D60" t="s" s="17">
+      <c r="D60" t="s" s="14">
         <v>34</v>
       </c>
       <c r="E60" s="7"/>
       <c r="F60" t="s" s="7">
-        <v>168</v>
-      </c>
-      <c r="G60" s="10">
+        <v>146</v>
+      </c>
+      <c r="G60" s="9">
         <v>733</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="20"/>
       <c r="B61" s="20"/>
       <c r="C61" s="4"/>
-      <c r="D61" t="s" s="17">
+      <c r="D61" t="s" s="14">
         <v>35</v>
       </c>
       <c r="E61" s="7"/>
       <c r="F61" t="s" s="7">
-        <v>168</v>
-      </c>
-      <c r="G61" s="10">
+        <v>146</v>
+      </c>
+      <c r="G61" s="9">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="20">
         <v>8.4</v>
       </c>
@@ -2230,327 +2215,327 @@
         <v>124</v>
       </c>
       <c r="C62" s="4"/>
-      <c r="D62" t="s" s="17">
+      <c r="D62" t="s" s="14">
         <v>36</v>
       </c>
       <c r="E62" s="7"/>
       <c r="F62" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G62" s="10">
+      <c r="G62" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="20"/>
       <c r="B63" s="20"/>
       <c r="C63" s="4"/>
-      <c r="D63" t="s" s="17">
+      <c r="D63" t="s" s="14">
         <v>37</v>
       </c>
       <c r="E63" s="7"/>
       <c r="F63" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G63" s="10">
+      <c r="G63" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="30">
+    <row r="64" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="16">
         <v>8.5</v>
       </c>
-      <c r="B64" t="s" s="30">
+      <c r="B64" t="s" s="16">
         <v>125</v>
       </c>
       <c r="C64" s="4"/>
-      <c r="D64" t="s" s="17">
+      <c r="D64" t="s" s="14">
         <v>38</v>
       </c>
       <c r="E64" s="7"/>
       <c r="F64" t="s" s="7">
-        <v>147</v>
-      </c>
-      <c r="G64" s="10">
+        <v>168</v>
+      </c>
+      <c r="G64" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="31"/>
-      <c r="B65" s="31"/>
+    <row r="65" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
       <c r="C65" s="4"/>
-      <c r="D65" t="s" s="17">
+      <c r="D65" t="s" s="14">
         <v>39</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" t="s" s="7">
-        <v>171</v>
-      </c>
-      <c r="G65" s="10">
+        <v>169</v>
+      </c>
+      <c r="G65" s="9">
         <v>15</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="31"/>
-      <c r="B66" s="31"/>
+    <row r="66" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
       <c r="C66" s="4"/>
-      <c r="D66" t="s" s="17">
+      <c r="D66" t="s" s="14">
         <v>40</v>
       </c>
       <c r="E66" s="7"/>
       <c r="F66" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="G66" s="10">
+        <v>149</v>
+      </c>
+      <c r="G66" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="32"/>
-      <c r="B67" s="32"/>
+    <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
+      <c r="A67" s="18"/>
+      <c r="B67" s="18"/>
       <c r="C67" s="4"/>
-      <c r="D67" t="s" s="17">
+      <c r="D67" t="s" s="14">
         <v>41</v>
       </c>
       <c r="E67" s="7"/>
       <c r="F67" t="s" s="7">
-        <v>148</v>
-      </c>
-      <c r="G67" s="10">
+        <v>164</v>
+      </c>
+      <c r="G67" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s" s="30">
+    <row r="68" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" t="s" s="16">
         <v>105</v>
       </c>
-      <c r="B68" t="s" s="30">
+      <c r="B68" t="s" s="16">
         <v>126</v>
       </c>
-      <c r="C68" t="s" s="33">
+      <c r="C68" t="s" s="21">
         <v>42</v>
       </c>
-      <c r="D68" t="s" s="17">
+      <c r="D68" t="s" s="14">
         <v>76</v>
       </c>
       <c r="E68" s="7"/>
       <c r="F68" t="s" s="7">
         <v>148</v>
       </c>
-      <c r="G68" s="10">
+      <c r="G68" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="32"/>
-      <c r="B69" s="32"/>
-      <c r="C69" s="35"/>
-      <c r="D69" t="s" s="17">
+    <row r="69" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="18"/>
+      <c r="B69" s="18"/>
+      <c r="C69" s="22"/>
+      <c r="D69" t="s" s="14">
         <v>79</v>
       </c>
       <c r="E69" s="7"/>
       <c r="F69" t="s" s="7">
-        <v>172</v>
-      </c>
-      <c r="G69" s="10">
+        <v>170</v>
+      </c>
+      <c r="G69" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s" s="30">
+    <row r="70" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" t="s" s="16">
         <v>105</v>
       </c>
-      <c r="B70" t="s" s="30">
+      <c r="B70" t="s" s="16">
         <v>126</v>
       </c>
-      <c r="C70" t="s" s="18">
+      <c r="C70" t="s" s="15">
         <v>42</v>
       </c>
-      <c r="D70" t="s" s="17">
+      <c r="D70" t="s" s="14">
         <v>80</v>
       </c>
       <c r="E70" s="7"/>
       <c r="F70" t="s" s="7">
-        <v>173</v>
-      </c>
-      <c r="G70" s="10">
+        <v>171</v>
+      </c>
+      <c r="G70" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="31"/>
-      <c r="B71" s="31"/>
-      <c r="C71" t="s" s="29">
+    <row r="71" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+      <c r="C71" t="s" s="19">
         <v>43</v>
       </c>
-      <c r="D71" t="s" s="17">
+      <c r="D71" t="s" s="14">
         <v>77</v>
       </c>
       <c r="E71" s="7"/>
       <c r="F71" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="31"/>
-      <c r="B72" s="31"/>
-      <c r="C72" s="29"/>
-      <c r="D72" t="s" s="17">
+    <row r="72" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="19"/>
+      <c r="D72" t="s" s="14">
         <v>79</v>
       </c>
       <c r="E72" s="7"/>
       <c r="F72" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="31"/>
-      <c r="B73" s="31"/>
-      <c r="C73" s="29"/>
-      <c r="D73" t="s" s="17">
+    <row r="73" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="19"/>
+      <c r="D73" t="s" s="14">
         <v>80</v>
       </c>
       <c r="E73" s="7"/>
       <c r="F73" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="9">
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="31"/>
-      <c r="B74" s="31"/>
-      <c r="C74" t="s" s="29">
+    <row r="74" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+      <c r="C74" t="s" s="19">
         <v>44</v>
       </c>
-      <c r="D74" t="s" s="17">
+      <c r="D74" t="s" s="14">
         <v>78</v>
       </c>
       <c r="E74" s="7"/>
       <c r="F74" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G74" s="10">
+      <c r="G74" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="31"/>
-      <c r="B75" s="31"/>
-      <c r="C75" s="29"/>
-      <c r="D75" t="s" s="17">
+    <row r="75" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="19"/>
+      <c r="D75" t="s" s="14">
         <v>79</v>
       </c>
       <c r="E75" s="7"/>
       <c r="F75" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="32"/>
-      <c r="B76" s="32"/>
-      <c r="C76" s="29"/>
-      <c r="D76" t="s" s="17">
+    <row r="76" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="18"/>
+      <c r="B76" s="18"/>
+      <c r="C76" s="19"/>
+      <c r="D76" t="s" s="14">
         <v>80</v>
       </c>
       <c r="E76" s="7"/>
       <c r="F76" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" t="s" s="30">
+    <row r="77" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s" s="16">
         <v>137</v>
       </c>
-      <c r="B77" t="s" s="30">
+      <c r="B77" t="s" s="16">
         <v>127</v>
       </c>
       <c r="C77" s="4"/>
-      <c r="D77" t="s" s="17">
+      <c r="D77" t="s" s="14">
         <v>81</v>
       </c>
       <c r="E77" s="7"/>
       <c r="F77" t="s" s="7">
-        <v>174</v>
-      </c>
-      <c r="G77" t="s" s="10">
+        <v>168</v>
+      </c>
+      <c r="G77" t="s" s="9">
         <v>86</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="31"/>
-      <c r="B78" s="31"/>
+    <row r="78" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
       <c r="C78" s="4"/>
-      <c r="D78" t="s" s="17">
+      <c r="D78" t="s" s="14">
         <v>82</v>
       </c>
       <c r="E78" s="7"/>
       <c r="F78" t="s" s="7">
-        <v>175</v>
-      </c>
-      <c r="G78" t="s" s="10">
+        <v>159</v>
+      </c>
+      <c r="G78" t="s" s="9">
         <v>87</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="31"/>
-      <c r="B79" s="31"/>
+    <row r="79" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
       <c r="C79" s="4"/>
-      <c r="D79" t="s" s="17">
+      <c r="D79" t="s" s="14">
         <v>83</v>
       </c>
       <c r="E79" s="7"/>
       <c r="F79" t="s" s="7">
         <v>148</v>
       </c>
-      <c r="G79" t="s" s="10">
+      <c r="G79" t="s" s="9">
         <v>88</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="31"/>
-      <c r="B80" s="31"/>
+    <row r="80" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
       <c r="C80" s="4"/>
-      <c r="D80" t="s" s="17">
+      <c r="D80" t="s" s="14">
         <v>84</v>
       </c>
       <c r="E80" s="7"/>
       <c r="F80" t="s" s="7">
-        <v>166</v>
-      </c>
-      <c r="G80" t="s" s="10">
+        <v>164</v>
+      </c>
+      <c r="G80" t="s" s="9">
         <v>89</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="32"/>
-      <c r="B81" s="32"/>
+    <row r="81" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="4"/>
-      <c r="D81" t="s" s="17">
+      <c r="D81" t="s" s="14">
         <v>85</v>
       </c>
       <c r="E81" s="7"/>
       <c r="F81" t="s" s="7">
-        <v>98</v>
-      </c>
-      <c r="G81" t="s" s="10">
+        <v>159</v>
+      </c>
+      <c r="G81" t="s" s="9">
         <v>90</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s" s="20">
         <v>138</v>
       </c>
@@ -2558,172 +2543,128 @@
         <v>128</v>
       </c>
       <c r="C82" s="4"/>
-      <c r="D82" t="s" s="17">
+      <c r="D82" t="s" s="14">
         <v>45</v>
       </c>
       <c r="E82" s="7"/>
       <c r="F82" t="s" s="7">
-        <v>166</v>
-      </c>
-      <c r="G82" s="10">
+        <v>164</v>
+      </c>
+      <c r="G82" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="20"/>
       <c r="B83" s="20"/>
       <c r="C83" s="4"/>
-      <c r="D83" t="s" s="17">
+      <c r="D83" t="s" s="14">
         <v>46</v>
       </c>
       <c r="E83" s="7"/>
       <c r="F83" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G83" s="10">
+      <c r="G83" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="20"/>
       <c r="B84" s="20"/>
       <c r="C84" s="4"/>
-      <c r="D84" t="s" s="17">
+      <c r="D84" t="s" s="14">
         <v>47</v>
       </c>
       <c r="E84" s="7"/>
       <c r="F84" t="s" s="7">
-        <v>176</v>
-      </c>
-      <c r="G84" s="10">
+        <v>172</v>
+      </c>
+      <c r="G84" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="20"/>
       <c r="B85" s="20"/>
       <c r="C85" s="4"/>
-      <c r="D85" t="s" s="17">
+      <c r="D85" t="s" s="14">
         <v>48</v>
       </c>
       <c r="E85" s="7"/>
       <c r="F85" t="s" s="7">
-        <v>167</v>
-      </c>
-      <c r="G85" s="10">
+        <v>173</v>
+      </c>
+      <c r="G85" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" t="s" s="30">
+    <row r="86" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" t="s" s="16">
         <v>139</v>
       </c>
-      <c r="B86" t="s" s="30">
+      <c r="B86" t="s" s="16">
         <v>129</v>
       </c>
       <c r="C86" s="4"/>
-      <c r="D86" t="s" s="17">
+      <c r="D86" t="s" s="14">
         <v>18</v>
       </c>
       <c r="E86" s="7"/>
       <c r="F86" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G86" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="31"/>
-      <c r="B87" s="31"/>
+    <row r="87" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
       <c r="C87" s="4"/>
-      <c r="D87" t="s" s="17">
+      <c r="D87" t="s" s="14">
         <v>49</v>
       </c>
       <c r="E87" s="7"/>
       <c r="F87" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G87" s="10">
+      <c r="G87" s="9">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="31"/>
-      <c r="B88" s="31"/>
+    <row r="88" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
       <c r="C88" s="4"/>
-      <c r="D88" t="s" s="17">
+      <c r="D88" t="s" s="14">
         <v>50</v>
       </c>
       <c r="E88" s="7"/>
       <c r="F88" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G88" s="9">
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="32"/>
-      <c r="B89" s="32"/>
+    <row r="89" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="18"/>
+      <c r="B89" s="18"/>
       <c r="C89" s="4"/>
-      <c r="D89" t="s" s="17">
+      <c r="D89" t="s" s="14">
         <v>20</v>
       </c>
       <c r="E89" s="7"/>
       <c r="F89" t="s" s="7">
         <v>146</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G89" s="9">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="58">
-    <mergeCell ref="A86:A89"/>
-    <mergeCell ref="B86:B89"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="B82:B85"/>
-    <mergeCell ref="A82:A85"/>
-    <mergeCell ref="B77:B81"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="C71:C73"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A70:A76"/>
-    <mergeCell ref="B70:B76"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A67"/>
-    <mergeCell ref="B64:B67"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="C44:C51"/>
-    <mergeCell ref="B44:B54"/>
-    <mergeCell ref="A44:A54"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A32:A35"/>
-    <mergeCell ref="B36:B40"/>
-    <mergeCell ref="A36:A40"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="B41:B43"/>
-    <mergeCell ref="A26:A31"/>
-    <mergeCell ref="B26:B31"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="A18:A20"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="A10:A15"/>
@@ -2738,6 +2679,50 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A26:A31"/>
+    <mergeCell ref="B26:B31"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="B36:B40"/>
+    <mergeCell ref="A36:A40"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="B41:B43"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="C44:C51"/>
+    <mergeCell ref="B44:B54"/>
+    <mergeCell ref="A44:A54"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="A64:A67"/>
+    <mergeCell ref="B64:B67"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="C71:C73"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="A70:A76"/>
+    <mergeCell ref="B70:B76"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="A86:A89"/>
+    <mergeCell ref="B86:B89"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="B82:B85"/>
+    <mergeCell ref="A82:A85"/>
+    <mergeCell ref="B77:B81"/>
+    <mergeCell ref="A77:A81"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
